--- a/2.xlsx
+++ b/2.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\【若梦】B站课件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chao/Desktop/ComputerScience/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A9666-BC03-48BD-8AD0-E77236E0DC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722236B2-14A2-BC48-9C77-0A79530F448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="315" windowWidth="17070" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26820" yWindow="1660" windowWidth="17080" windowHeight="15400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="©一周进步" sheetId="43" r:id="rId1"/>
-    <sheet name="开始" sheetId="26" r:id="rId2"/>
-    <sheet name="不同设备上的Excel" sheetId="38" r:id="rId3"/>
-    <sheet name="Excel的基本介绍" sheetId="42" r:id="rId4"/>
-    <sheet name="自定义数字格式的准则" sheetId="40" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="44" r:id="rId2"/>
+    <sheet name="开始" sheetId="26" r:id="rId3"/>
+    <sheet name="不同设备上的Excel" sheetId="38" r:id="rId4"/>
+    <sheet name="Excel的基本介绍" sheetId="42" r:id="rId5"/>
+    <sheet name="自定义数字格式的准则" sheetId="40" state="hidden" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="MoreItems">#REF!</definedName>
     <definedName name="SUMIF">#REF!</definedName>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>@</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -365,6 +363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>©版权声明
@@ -376,6 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>点击右侧图片进入一周进步官网</t>
@@ -385,6 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，里面有更多知识等你学习👉
@@ -395,25 +396,29 @@
 祝大家学习愉快</t>
     </r>
   </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="[$¥-804]#,##0;[Red][$¥-804]\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy"/>
-    <numFmt numFmtId="181" formatCode="????.??????"/>
-    <numFmt numFmtId="182" formatCode="#"/>
-    <numFmt numFmtId="183" formatCode="??.???"/>
-    <numFmt numFmtId="184" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="[$¥-804]#,##0;[Red][$¥-804]\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="_ [$¥-804]* #,##0_ ;_ [$¥-804]* \-#,##0_ ;_ [$¥-804]* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="yyyy"/>
+    <numFmt numFmtId="183" formatCode="????.??????"/>
+    <numFmt numFmtId="184" formatCode="#"/>
+    <numFmt numFmtId="185" formatCode="??.???"/>
+    <numFmt numFmtId="186" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +628,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -630,6 +636,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -637,6 +644,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1030,12 +1038,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1053,15 +1061,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,14 +1223,14 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3177,29 +3185,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="开始"/>
-      <sheetName val="1. 智能填充"/>
-      <sheetName val="提取括号中的内容"/>
-      <sheetName val="拆分重组"/>
-      <sheetName val="数据拆分"/>
-      <sheetName val="提取身份证号码信息"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3443,20 +3428,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01F71A1-EF98-424A-AAA8-A4CA39FE17E6}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="39" customWidth="1"/>
     <col min="3" max="13" width="8" style="39"/>
-    <col min="14" max="14" width="11.109375" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="39" customWidth="1"/>
     <col min="15" max="16384" width="8" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="408.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="409" customHeight="1">
       <c r="B2" s="41" t="s">
         <v>74</v>
       </c>
@@ -3472,7 +3457,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
     </row>
-    <row r="3" spans="2:13" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="123" customHeight="1">
       <c r="B3" s="41"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -3486,7 +3471,7 @@
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3500,7 +3485,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -3514,7 +3499,7 @@
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -3528,7 +3513,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -3542,7 +3527,7 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -3556,7 +3541,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -3582,6 +3567,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC3534-9C1C-6C4F-BE64-B9A5CAEB9A30}">
+  <dimension ref="F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="12" spans="6:6">
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C32"/>
@@ -3590,28 +3596,28 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="60" customHeight="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="22.5" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="15" customHeight="1">
       <c r="B17" s="23"/>
     </row>
-    <row r="27" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" ht="40" customHeight="1">
       <c r="B27" s="25" t="s">
         <v>22</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="40" customHeight="1">
       <c r="B28" s="26" t="s">
         <v>24</v>
       </c>
@@ -3627,11 +3633,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="40" customHeight="1">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="40" customHeight="1">
       <c r="B30" s="26" t="s">
         <v>26</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" ht="40" customHeight="1">
       <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="40" customHeight="1">
       <c r="B32" s="28" t="s">
         <v>30</v>
       </c>
@@ -3663,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EAC63E-09E5-4DCB-955C-7453D73AFE1A}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -3671,17 +3677,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="3" customWidth="1"/>
     <col min="5" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="60" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -3692,7 +3698,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -3702,7 +3708,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="B3" s="4"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -3713,7 +3719,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -3723,7 +3729,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -3734,7 +3740,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6"/>
@@ -3746,7 +3752,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -3757,7 +3763,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -3768,7 +3774,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -3779,7 +3785,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -3790,7 +3796,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -3801,7 +3807,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -3812,7 +3818,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3823,7 +3829,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3834,7 +3840,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -3845,7 +3851,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -3856,7 +3862,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3867,7 +3873,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -3878,7 +3884,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -3889,7 +3895,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -3900,7 +3906,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3911,7 +3917,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
       <c r="C22"/>
@@ -3923,7 +3929,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23"/>
@@ -3935,7 +3941,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3946,7 +3952,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -3956,7 +3962,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -3966,7 +3972,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -3984,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE398794-0672-4DC5-A49A-AEE59B275A37}">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -3992,17 +3998,17 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="38" customWidth="1"/>
     <col min="5" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="60" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="27"/>
       <c r="D1" s="24"/>
@@ -4013,7 +4019,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1">
       <c r="C2" s="27"/>
       <c r="D2" s="24"/>
       <c r="E2"/>
@@ -4023,7 +4029,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="B3" s="4"/>
       <c r="C3" s="27"/>
       <c r="D3" s="24"/>
@@ -4034,7 +4040,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="C4" s="27"/>
       <c r="D4" s="24"/>
       <c r="E4"/>
@@ -4044,7 +4050,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="C5" s="27"/>
       <c r="D5" s="24"/>
@@ -4055,7 +4061,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="27"/>
@@ -4067,7 +4073,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="C7" s="27"/>
       <c r="D7" s="24"/>
@@ -4078,7 +4084,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1"/>
       <c r="C8" s="27"/>
       <c r="D8" s="24"/>
@@ -4089,7 +4095,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="C9" s="27"/>
       <c r="D9" s="24"/>
@@ -4100,7 +4106,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="C10" s="27"/>
       <c r="D10" s="24"/>
@@ -4111,7 +4117,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="C11" s="27"/>
       <c r="D11" s="24"/>
@@ -4122,7 +4128,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="C12" s="27"/>
       <c r="D12" s="24"/>
@@ -4133,7 +4139,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="C13" s="27"/>
       <c r="D13" s="24"/>
@@ -4144,7 +4150,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="C14" s="27"/>
       <c r="D14" s="24"/>
@@ -4155,7 +4161,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="C15" s="27"/>
       <c r="D15" s="24"/>
@@ -4166,7 +4172,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="C16" s="27"/>
       <c r="D16" s="24"/>
@@ -4177,7 +4183,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="C17" s="27"/>
       <c r="D17" s="24"/>
@@ -4188,7 +4194,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="C18" s="27"/>
       <c r="D18" s="24"/>
@@ -4199,7 +4205,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="C19" s="27"/>
       <c r="D19" s="24"/>
@@ -4210,7 +4216,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="C20" s="27"/>
       <c r="D20" s="24"/>
@@ -4221,7 +4227,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="C21" s="27"/>
       <c r="D21" s="24"/>
@@ -4232,7 +4238,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
       <c r="C22" s="27"/>
@@ -4244,7 +4250,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="27"/>
@@ -4256,7 +4262,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="C24" s="27"/>
       <c r="D24" s="24"/>
@@ -4267,7 +4273,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="C25" s="27"/>
       <c r="D25" s="24"/>
       <c r="E25"/>
@@ -4277,7 +4283,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="33" customHeight="1">
       <c r="B26" s="29" t="s">
         <v>32</v>
       </c>
@@ -4294,7 +4300,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="33" customHeight="1">
       <c r="B27" s="32" t="s">
         <v>34</v>
       </c>
@@ -4311,7 +4317,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="33" customHeight="1">
       <c r="B28" s="33" t="s">
         <v>37</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="33" customHeight="1">
       <c r="B29" s="32" t="s">
         <v>40</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="33" customHeight="1">
       <c r="B30" s="33" t="s">
         <v>43</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="33" customHeight="1">
       <c r="B31" s="32" t="s">
         <v>46</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="33" customHeight="1">
       <c r="B32" s="33" t="s">
         <v>49</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="33" customHeight="1">
       <c r="B33" s="32" t="s">
         <v>52</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="33" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>55</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="33" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="33" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>60</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="33" customHeight="1">
       <c r="B37" s="32" t="s">
         <v>62</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="33" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>65</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="33" customHeight="1">
       <c r="B39" s="32" t="s">
         <v>68</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="33" customHeight="1">
       <c r="B40" s="33" t="s">
         <v>71</v>
       </c>
@@ -4454,12 +4460,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="15" customHeight="1">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="37"/>
     </row>
-    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="15" customHeight="1">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="37"/>
@@ -4472,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A16DDB-1C79-4EB1-87AE-3C9CDF6785B8}">
   <dimension ref="B1:H51"/>
   <sheetViews>
@@ -4480,157 +4486,157 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="53.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="3"/>
-    <col min="11" max="11" width="31.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="10" width="8.83203125" style="3"/>
+    <col min="11" max="11" width="31.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:8" ht="60" customHeight="1">
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="6:8" ht="17">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:8" ht="17">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:8" ht="17">
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:8" ht="17">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:8" ht="17">
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:8" ht="17">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:8" ht="17">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:8" ht="17">
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:8" ht="17">
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:8" ht="17">
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:8" ht="17">
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:8" ht="17">
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:8" ht="17">
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:8" ht="17">
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="6:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:8" ht="17">
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="17">
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="17">
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="17">
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="17">
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" s="5" customFormat="1" ht="17">
       <c r="B21"/>
       <c r="C21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" s="5" customFormat="1" ht="17">
       <c r="B22"/>
       <c r="C22"/>
       <c r="F22" s="19"/>
       <c r="G22"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="17">
       <c r="B23"/>
       <c r="C23"/>
       <c r="F23" s="19"/>
       <c r="G23"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="5" customFormat="1" ht="17">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" s="5" customFormat="1" ht="17">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4647,7 @@
       <c r="G26"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
@@ -4650,7 +4656,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B28" s="11">
         <v>0</v>
       </c>
@@ -4661,7 +4667,7 @@
       <c r="E28" s="21"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>1</v>
       </c>
@@ -4674,7 +4680,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4693,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4706,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4719,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B33" s="10" t="s">
         <v>10</v>
       </c>
@@ -4726,7 +4732,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +4745,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" s="5" customFormat="1" ht="49" customHeight="1">
       <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
@@ -4752,7 +4758,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" s="5" customFormat="1" ht="43.5" customHeight="1">
       <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
@@ -4765,7 +4771,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="B37"/>
       <c r="C37"/>
       <c r="E37" s="7"/>
@@ -4773,7 +4779,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="B38"/>
       <c r="C38"/>
       <c r="E38" s="7"/>
@@ -4781,36 +4787,36 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" s="5" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" s="5" customFormat="1" ht="30.5" customHeight="1">
       <c r="C39"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:8" s="5" customFormat="1" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" s="5" customFormat="1" ht="64.25" customHeight="1">
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="2:8" s="5" customFormat="1" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:8" s="5" customFormat="1" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" s="5" customFormat="1" ht="64.25" customHeight="1"/>
+    <row r="42" spans="2:8" s="5" customFormat="1" ht="64.25" customHeight="1">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:8" s="5" customFormat="1" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" s="5" customFormat="1" ht="64.25" customHeight="1">
       <c r="D43" s="3"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:8" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:8" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:8" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:8" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="64.25" customHeight="1"/>
+    <row r="45" spans="2:8" ht="64.25" customHeight="1"/>
+    <row r="46" spans="2:8" ht="64.25" customHeight="1"/>
+    <row r="47" spans="2:8" ht="64.25" customHeight="1">
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="2:8" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" ht="64.25" customHeight="1"/>
+    <row r="49" ht="64.25" customHeight="1"/>
+    <row r="50" ht="64.25" customHeight="1"/>
+    <row r="51" ht="64.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chao/Desktop/ComputerScience/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722236B2-14A2-BC48-9C77-0A79530F448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F3AB7-0391-5341-9ACC-FE4C732F0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="1660" windowWidth="17080" windowHeight="15400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26820" yWindow="1660" windowWidth="17080" windowHeight="15400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="©一周进步" sheetId="43" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="44" r:id="rId2"/>
-    <sheet name="开始" sheetId="26" r:id="rId3"/>
-    <sheet name="不同设备上的Excel" sheetId="38" r:id="rId4"/>
-    <sheet name="Excel的基本介绍" sheetId="42" r:id="rId5"/>
-    <sheet name="自定义数字格式的准则" sheetId="40" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="45" r:id="rId3"/>
+    <sheet name="开始" sheetId="26" r:id="rId4"/>
+    <sheet name="不同设备上的Excel" sheetId="38" r:id="rId5"/>
+    <sheet name="Excel的基本介绍" sheetId="42" r:id="rId6"/>
+    <sheet name="自定义数字格式的准则" sheetId="40" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="MoreItems">#REF!</definedName>
@@ -3570,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC3534-9C1C-6C4F-BE64-B9A5CAEB9A30}">
   <dimension ref="F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3588,6 +3589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E27522F-07C6-7C43-BF67-1DD96F98633A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C32"/>
@@ -3669,7 +3689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EAC63E-09E5-4DCB-955C-7453D73AFE1A}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -3990,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE398794-0672-4DC5-A49A-AEE59B275A37}">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -4478,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A16DDB-1C79-4EB1-87AE-3C9CDF6785B8}">
   <dimension ref="B1:H51"/>
   <sheetViews>
